--- a/docs/電腦打字高中職英文組決賽名冊.xlsx
+++ b/docs/電腦打字高中職英文組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="107">
   <si>
     <t>序</t>
   </si>
@@ -48,160 +48,169 @@
     <t>大甲區致用高中</t>
   </si>
   <si>
+    <t>李祐昇</t>
+  </si>
+  <si>
+    <t>蔡宜玲</t>
+  </si>
+  <si>
+    <t>gwh87xb3</t>
+  </si>
+  <si>
+    <t>xb7rs3</t>
+  </si>
+  <si>
     <t>郭彩瑩</t>
   </si>
   <si>
-    <t>劉乃瑜</t>
-  </si>
-  <si>
-    <t>s19n2</t>
-  </si>
-  <si>
-    <t>d26p7</t>
-  </si>
-  <si>
-    <t>莊彩菁</t>
-  </si>
-  <si>
-    <t>hpe36jk3</t>
-  </si>
-  <si>
-    <t>jkf50nc8</t>
-  </si>
-  <si>
-    <t>康維倩</t>
-  </si>
-  <si>
-    <t>dx8kf2</t>
-  </si>
-  <si>
-    <t>cd88nc8</t>
-  </si>
-  <si>
-    <t>江霽宸</t>
-  </si>
-  <si>
-    <t>劉羚蓁</t>
-  </si>
-  <si>
-    <t>a93j7</t>
-  </si>
-  <si>
-    <t>cd20t2</t>
+    <t>楊淑芬</t>
+  </si>
+  <si>
+    <t>cdx13tv9</t>
+  </si>
+  <si>
+    <t>tv38tv4</t>
+  </si>
+  <si>
+    <t>賴郁翔</t>
+  </si>
+  <si>
+    <t>林頌舜</t>
+  </si>
+  <si>
+    <t>ncd82pe8</t>
+  </si>
+  <si>
+    <t>whp87b3</t>
   </si>
   <si>
     <t>大里區立人高中</t>
   </si>
   <si>
+    <t>李泰嵩</t>
+  </si>
+  <si>
+    <t>黃玉勝</t>
+  </si>
+  <si>
+    <t>w18x4</t>
+  </si>
+  <si>
+    <t>et34fr4</t>
+  </si>
+  <si>
     <t>張智雅</t>
   </si>
   <si>
-    <t>黃玉勝</t>
-  </si>
-  <si>
-    <t>jkf68h2</t>
-  </si>
-  <si>
-    <t>y39b8</t>
-  </si>
-  <si>
-    <t>李泰嵩</t>
-  </si>
-  <si>
-    <t>kf93v1</t>
-  </si>
-  <si>
-    <t>hp6h6</t>
+    <t>rs27wh1</t>
+  </si>
+  <si>
+    <t>myg31j8</t>
+  </si>
+  <si>
+    <t>鍾昆霖</t>
+  </si>
+  <si>
+    <t>v37my9</t>
+  </si>
+  <si>
+    <t>yg92e2</t>
+  </si>
+  <si>
+    <t>北屯區葳格高中</t>
+  </si>
+  <si>
+    <t>吳奕暄</t>
+  </si>
+  <si>
+    <t>黃俊儒</t>
+  </si>
+  <si>
+    <t>dx37t3</t>
+  </si>
+  <si>
+    <t>et12e2</t>
+  </si>
+  <si>
+    <t>植木勇心</t>
+  </si>
+  <si>
+    <t>whp57t6</t>
+  </si>
+  <si>
+    <t>gw82h3</t>
+  </si>
+  <si>
+    <t>北屯區衛道高中</t>
+  </si>
+  <si>
+    <t>蔡沅龍</t>
+  </si>
+  <si>
+    <t>郭學政</t>
+  </si>
+  <si>
+    <t>smy59m2</t>
+  </si>
+  <si>
+    <t>rs74cd2</t>
+  </si>
+  <si>
+    <t>楊博皓</t>
+  </si>
+  <si>
+    <t>wh67cd8</t>
+  </si>
+  <si>
+    <t>pe11sm5</t>
   </si>
   <si>
     <t>北區曉明女中</t>
   </si>
   <si>
-    <t>楊馥瑜</t>
+    <t>洪恩柔</t>
   </si>
   <si>
     <t>劉國聲</t>
   </si>
   <si>
-    <t>ncd19j6</t>
-  </si>
-  <si>
-    <t>kf93sm5</t>
-  </si>
-  <si>
-    <t>陳宥蓁</t>
-  </si>
-  <si>
-    <t>bjk99a6</t>
-  </si>
-  <si>
-    <t>pe86my1</t>
-  </si>
-  <si>
-    <t>邱奕臻</t>
-  </si>
-  <si>
-    <t>bjk54s2</t>
-  </si>
-  <si>
-    <t>gwh84j5</t>
-  </si>
-  <si>
-    <t>陳香尹</t>
-  </si>
-  <si>
-    <t>w28f7</t>
-  </si>
-  <si>
-    <t>myg37wh8</t>
-  </si>
-  <si>
-    <t>西屯區西苑高中</t>
-  </si>
-  <si>
-    <t>吳芃燁</t>
-  </si>
-  <si>
-    <t>蔡雨汝</t>
-  </si>
-  <si>
-    <t>hp97b3</t>
-  </si>
-  <si>
-    <t>m9bj4</t>
-  </si>
-  <si>
-    <t>西區忠明高中</t>
-  </si>
-  <si>
-    <t>蘇纓</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>rs93d6</t>
-  </si>
-  <si>
-    <t>yg63r8</t>
-  </si>
-  <si>
-    <t>陳郁勝</t>
-  </si>
-  <si>
-    <t>dx48n6</t>
-  </si>
-  <si>
-    <t>c75m2</t>
-  </si>
-  <si>
-    <t>葉書晴</t>
-  </si>
-  <si>
-    <t>gw66wh1</t>
-  </si>
-  <si>
-    <t>x65k4</t>
+    <t>my13r6</t>
+  </si>
+  <si>
+    <t>tv77hp8</t>
+  </si>
+  <si>
+    <t>林庭伃</t>
+  </si>
+  <si>
+    <t>cdx8k4</t>
+  </si>
+  <si>
+    <t>gwh68g5</t>
+  </si>
+  <si>
+    <t>陳郁媗</t>
+  </si>
+  <si>
+    <t>r45pe5</t>
+  </si>
+  <si>
+    <t>ygw40p3</t>
+  </si>
+  <si>
+    <t>后里區后綜高中</t>
+  </si>
+  <si>
+    <t>陳政翔</t>
+  </si>
+  <si>
+    <t>唐慧玲</t>
+  </si>
+  <si>
+    <t>tv20v5</t>
+  </si>
+  <si>
+    <t>tv93g6</t>
   </si>
   <si>
     <t>西區臺中女中</t>
@@ -213,19 +222,10 @@
     <t>曾鈴惠</t>
   </si>
   <si>
-    <t>dx30gw3</t>
-  </si>
-  <si>
-    <t>whp59rs1</t>
-  </si>
-  <si>
-    <t>吳沛儀</t>
-  </si>
-  <si>
-    <t>r16my7</t>
-  </si>
-  <si>
-    <t>a78h4</t>
+    <t>a79k8</t>
+  </si>
+  <si>
+    <t>wh96gw2</t>
   </si>
   <si>
     <t>東區臺中家商</t>
@@ -234,106 +234,112 @@
     <t>鄭茵茵</t>
   </si>
   <si>
-    <t>陳淑嬌老師</t>
-  </si>
-  <si>
-    <t>anc46my8</t>
-  </si>
-  <si>
-    <t>cdx48et7</t>
+    <t>陳淑嬌</t>
+  </si>
+  <si>
+    <t>g96g5</t>
+  </si>
+  <si>
+    <t>jk10fr2</t>
   </si>
   <si>
     <t>南屯區惠文高中</t>
   </si>
   <si>
-    <t>陳子豪</t>
+    <t>許文碩</t>
   </si>
   <si>
     <t>黃智仁</t>
   </si>
   <si>
-    <t>jk62fr5</t>
-  </si>
-  <si>
-    <t>kfr32f5</t>
-  </si>
-  <si>
-    <t>周志穎</t>
-  </si>
-  <si>
-    <t>bjk25jk3</t>
-  </si>
-  <si>
-    <t>xb94w8</t>
+    <t>dxb67n6</t>
+  </si>
+  <si>
+    <t>c49pe4</t>
   </si>
   <si>
     <t>林玄順</t>
   </si>
   <si>
-    <t>s30x5</t>
-  </si>
-  <si>
-    <t>et88h5</t>
-  </si>
-  <si>
-    <t>許文碩</t>
-  </si>
-  <si>
-    <t>nc69kf7</t>
-  </si>
-  <si>
-    <t>cd65rs7</t>
+    <t>yg34cd2</t>
+  </si>
+  <si>
+    <t>sm76r5</t>
+  </si>
+  <si>
+    <t>林耕弘</t>
+  </si>
+  <si>
+    <t>r35y9</t>
+  </si>
+  <si>
+    <t>rs9kf8</t>
+  </si>
+  <si>
+    <t>陳重佑</t>
+  </si>
+  <si>
+    <t>s77j5</t>
+  </si>
+  <si>
+    <t>j48h4</t>
   </si>
   <si>
     <t>烏日區明道中學</t>
   </si>
   <si>
+    <t>林建佑</t>
+  </si>
+  <si>
+    <t>黃淑珍</t>
+  </si>
+  <si>
+    <t>gw36tv9</t>
+  </si>
+  <si>
+    <t>dx52s4</t>
+  </si>
+  <si>
+    <t>莊書杰</t>
+  </si>
+  <si>
+    <t>tv75f2</t>
+  </si>
+  <si>
+    <t>rs15x7</t>
+  </si>
+  <si>
+    <t>陳欣妤</t>
+  </si>
+  <si>
+    <t>xbj1y1</t>
+  </si>
+  <si>
+    <t>rs73nc5</t>
+  </si>
+  <si>
     <t>林庭宇</t>
   </si>
   <si>
-    <t>黃淑珍</t>
-  </si>
-  <si>
-    <t>et92dx3</t>
-  </si>
-  <si>
-    <t>a7h9</t>
-  </si>
-  <si>
-    <t>霧峰區明台高中</t>
-  </si>
-  <si>
-    <t>徐辰宇</t>
-  </si>
-  <si>
-    <t>羅國微</t>
-  </si>
-  <si>
-    <t>m14d2</t>
-  </si>
-  <si>
-    <t>fr89h8</t>
-  </si>
-  <si>
-    <t>朱昱安</t>
-  </si>
-  <si>
-    <t>徐素芬</t>
-  </si>
-  <si>
-    <t>nc28r6</t>
-  </si>
-  <si>
-    <t>kf75cd3</t>
-  </si>
-  <si>
-    <t>劉俊良</t>
-  </si>
-  <si>
-    <t>wh65n8</t>
-  </si>
-  <si>
-    <t>wh14w5</t>
+    <t>tv28tv5</t>
+  </si>
+  <si>
+    <t>ygw54w7</t>
+  </si>
+  <si>
+    <t>新社區新社高中</t>
+  </si>
+  <si>
+    <t>游定俞</t>
+  </si>
+  <si>
+    <t>詹敬強</t>
+  </si>
+  <si>
+    <t>rs84r4</t>
+  </si>
+  <si>
+    <t>jkf26wh8</t>
   </si>
 </sst>
 </file>
@@ -1336,10 +1342,10 @@
     <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1402,13 +1408,13 @@
         <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1422,16 +1428,16 @@
         <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1442,19 +1448,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1465,19 +1471,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="F6" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1488,19 +1494,19 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1511,19 +1517,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1534,19 +1540,19 @@
         <v>7</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1557,19 +1563,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1580,19 +1586,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>33</v>
-      </c>
       <c r="F11" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1603,19 +1609,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1626,19 +1632,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>52</v>
-      </c>
       <c r="F13" s="8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1649,19 +1655,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>52</v>
-      </c>
       <c r="F14" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1672,19 +1678,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1695,19 +1701,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1718,19 +1724,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1741,19 +1747,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1767,16 +1773,16 @@
         <v>74</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1790,16 +1796,16 @@
         <v>74</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1813,16 +1819,16 @@
         <v>74</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1833,19 +1839,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1859,16 +1865,16 @@
         <v>88</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1879,19 +1885,19 @@
         <v>7</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1902,13 +1908,13 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>100</v>
@@ -1925,19 +1931,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
